--- a/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
   <si>
     <t>Model Name</t>
   </si>
@@ -259,9 +259,6 @@
     <t>S45</t>
   </si>
   <si>
-    <t xml:space="preserve">      Z33  (3GB+32GB)</t>
-  </si>
-  <si>
     <t>2.4"</t>
   </si>
   <si>
@@ -283,10 +280,10 @@
     <t>Z22  (2GB+32GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 02/01/202</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Last Updated on: 16/01/202</t>
+  </si>
+  <si>
+    <t>Z33  (3GB+32GB)</t>
   </si>
 </sst>
 </file>
@@ -560,9 +557,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,6 +564,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,8 +659,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="204721" y="10661499"/>
-          <a:ext cx="4754498" cy="260052"/>
+          <a:off x="204721" y="10547199"/>
+          <a:ext cx="4706873" cy="260052"/>
           <a:chOff x="249" y="249"/>
           <a:chExt cx="272" cy="258"/>
         </a:xfrm>
@@ -2953,28 +2950,26 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="17.5703125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
@@ -2985,7 +2980,7 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>65</v>
       </c>
@@ -2996,9 +2991,9 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -3007,7 +3002,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -3030,7 +3025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -3053,12 +3048,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5">
         <v>960</v>
@@ -3076,7 +3071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -3099,7 +3094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -3122,7 +3117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -3145,7 +3140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -3168,7 +3163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -3191,7 +3186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -3214,7 +3209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -3237,7 +3232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -3260,7 +3255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -3283,7 +3278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -3304,9 +3299,6 @@
       </c>
       <c r="G16" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6">
         <v>1260</v>
@@ -3392,7 +3384,7 @@
         <v>1360</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>22</v>
@@ -3484,7 +3476,7 @@
         <v>1299</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>22</v>
@@ -3645,7 +3637,7 @@
         <v>1550</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>20</v>
@@ -3677,7 +3669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -3690,23 +3682,23 @@
       <c r="A34" s="9">
         <v>1</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="14">
-        <v>8300</v>
-      </c>
-      <c r="D34" s="14">
-        <v>8790</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>32</v>
+      <c r="B34" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="13">
+        <v>7430</v>
+      </c>
+      <c r="D34" s="13">
+        <v>7990</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3714,22 +3706,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="6">
-        <v>7430</v>
+        <v>7240</v>
       </c>
       <c r="D35" s="6">
-        <v>7990</v>
+        <v>7790</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3737,22 +3729,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6">
-        <v>7240</v>
+        <v>4840</v>
       </c>
       <c r="D36" s="6">
-        <v>7790</v>
+        <v>5190</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3760,22 +3752,22 @@
         <v>4</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C37" s="6">
-        <v>4840</v>
+        <v>5600</v>
       </c>
       <c r="D37" s="6">
-        <v>5190</v>
+        <v>5990</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3783,19 +3775,19 @@
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C38" s="6">
-        <v>5290</v>
+        <v>6500</v>
       </c>
       <c r="D38" s="6">
-        <v>5690</v>
+        <v>6990</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>74</v>
@@ -3806,22 +3798,22 @@
         <v>6</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C39" s="6">
-        <v>6500</v>
+        <v>7430</v>
       </c>
       <c r="D39" s="6">
-        <v>6990</v>
+        <v>7990</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3829,13 +3821,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C40" s="6">
-        <v>7430</v>
+        <v>7700</v>
       </c>
       <c r="D40" s="6">
-        <v>7990</v>
+        <v>7290</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>31</v>
@@ -3852,13 +3844,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C41" s="6">
-        <v>7700</v>
+        <v>9300</v>
       </c>
       <c r="D41" s="6">
-        <v>7290</v>
+        <v>9790</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>31</v>
@@ -3867,7 +3859,7 @@
         <v>32</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,13 +3867,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="6">
-        <v>9300</v>
+        <v>10130</v>
       </c>
       <c r="D42" s="6">
-        <v>9790</v>
+        <v>10890</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>31</v>
@@ -3898,13 +3890,13 @@
         <v>10</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C43" s="6">
-        <v>10130</v>
+        <v>8490</v>
       </c>
       <c r="D43" s="6">
-        <v>10890</v>
+        <v>8990</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>31</v>
@@ -3913,7 +3905,7 @@
         <v>32</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4034,7 +4026,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A47" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -232,9 +232,6 @@
     <t xml:space="preserve">5'' </t>
   </si>
   <si>
-    <t>+8801717436223</t>
-  </si>
-  <si>
     <t>Komola Super Market,Alaipur, Natore.</t>
   </si>
   <si>
@@ -280,10 +277,13 @@
     <t>Z22  (2GB+32GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 16/01/202</t>
-  </si>
-  <si>
     <t>Z33  (3GB+32GB)</t>
+  </si>
+  <si>
+    <t>Last Updated on: 17/01/202</t>
+  </si>
+  <si>
+    <t>+8801715116767</t>
   </si>
 </sst>
 </file>
@@ -2954,7 +2954,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="5">
         <v>960</v>
@@ -3306,7 +3306,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="6">
         <v>1190</v>
@@ -3375,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="6">
         <v>1260</v>
@@ -3384,7 +3384,7 @@
         <v>1360</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>22</v>
@@ -3444,7 +3444,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="6">
         <v>1240</v>
@@ -3467,7 +3467,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="6">
         <v>1200</v>
@@ -3476,7 +3476,7 @@
         <v>1299</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>22</v>
@@ -3628,7 +3628,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="6">
         <v>1430</v>
@@ -3637,7 +3637,7 @@
         <v>1550</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>20</v>
@@ -3752,7 +3752,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="6">
         <v>5600</v>
@@ -3761,13 +3761,13 @@
         <v>5990</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="6">
         <v>6500</v>
@@ -3784,13 +3784,13 @@
         <v>6990</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="G38" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,7 +3821,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="6">
         <v>7700</v>
@@ -3890,7 +3890,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="6">
         <v>8490</v>
@@ -3979,11 +3979,11 @@
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -4027,9 +4027,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A47" numberStoredAsText="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
   <si>
     <t>Model Name</t>
   </si>
@@ -280,10 +280,37 @@
     <t>Z33  (3GB+32GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 17/01/202</t>
-  </si>
-  <si>
     <t>+8801715116767</t>
+  </si>
+  <si>
+    <t>V138 (2GB+32GB)</t>
+  </si>
+  <si>
+    <t>5.45"</t>
+  </si>
+  <si>
+    <t>2580mAh</t>
+  </si>
+  <si>
+    <t>5MP+2MP</t>
+  </si>
+  <si>
+    <t>Z32  (3GB+32GB)</t>
+  </si>
+  <si>
+    <t>50000mAh</t>
+  </si>
+  <si>
+    <t>i99 (2GB+32GB)</t>
+  </si>
+  <si>
+    <t>5.7"</t>
+  </si>
+  <si>
+    <t>8MP+2MP+5MP</t>
+  </si>
+  <si>
+    <t>Last Updated on: 23/01/2022</t>
   </si>
 </sst>
 </file>
@@ -519,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -591,6 +618,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,13 +665,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>204721</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>387219</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>91626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -659,7 +689,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="204721" y="10547199"/>
+          <a:off x="204721" y="11204424"/>
           <a:ext cx="4706873" cy="260052"/>
           <a:chOff x="249" y="249"/>
           <a:chExt cx="272" cy="258"/>
@@ -680,7 +710,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="343" y="338"/>
+            <a:off x="348" y="338"/>
             <a:ext cx="8" cy="141"/>
           </a:xfrm>
           <a:custGeom>
@@ -2950,11 +2980,11 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,15 +3022,15 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3669,14 +3699,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
+    <row r="33" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
@@ -3798,22 +3828,22 @@
         <v>6</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C39" s="6">
-        <v>7430</v>
+        <v>6570</v>
       </c>
       <c r="D39" s="6">
-        <v>7990</v>
+        <v>6990</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,22 +3851,22 @@
         <v>7</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C40" s="6">
-        <v>7700</v>
+        <v>6100</v>
       </c>
       <c r="D40" s="6">
-        <v>7290</v>
+        <v>6490</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3844,13 +3874,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="6">
-        <v>9300</v>
+        <v>7430</v>
       </c>
       <c r="D41" s="6">
-        <v>9790</v>
+        <v>7990</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>31</v>
@@ -3859,7 +3889,7 @@
         <v>32</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3867,13 +3897,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C42" s="6">
-        <v>10130</v>
+        <v>7700</v>
       </c>
       <c r="D42" s="6">
-        <v>10890</v>
+        <v>8290</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>31</v>
@@ -3882,7 +3912,7 @@
         <v>32</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3890,13 +3920,13 @@
         <v>10</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C43" s="6">
-        <v>8490</v>
+        <v>9300</v>
       </c>
       <c r="D43" s="6">
-        <v>8990</v>
+        <v>9790</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>31</v>
@@ -3905,7 +3935,7 @@
         <v>32</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3913,22 +3943,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" s="6">
-        <v>9290</v>
+        <v>10130</v>
       </c>
       <c r="D44" s="6">
-        <v>9990</v>
+        <v>10890</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3936,22 +3966,22 @@
         <v>12</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C45" s="6">
-        <v>10230</v>
+        <v>7980</v>
       </c>
       <c r="D45" s="6">
-        <v>10990</v>
+        <v>8490</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3959,74 +3989,143 @@
         <v>13</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C46" s="6">
-        <v>9290</v>
+        <v>8490</v>
       </c>
       <c r="D46" s="6">
-        <v>9990</v>
+        <v>8990</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G46" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>14</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="6">
+        <v>9290</v>
+      </c>
+      <c r="D47" s="6">
+        <v>9990</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>15</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="6">
+        <v>10230</v>
+      </c>
+      <c r="D48" s="6">
+        <v>10990</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>16</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="6">
+        <v>9290</v>
+      </c>
+      <c r="D49" s="6">
+        <v>9990</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="24" t="s">
+    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
   </sheetData>
   <sortState ref="B34:G46">
     <sortCondition ref="B34"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A50:B51"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="F47:G48"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="F50:G51"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -310,7 +310,7 @@
     <t>8MP+2MP+5MP</t>
   </si>
   <si>
-    <t>Last Updated on: 23/01/2022</t>
+    <t>Last Updated on: 29/01/2022</t>
   </si>
 </sst>
 </file>
@@ -2983,8 +2983,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,10 +3224,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="6">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="D12" s="6">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>23</v>

--- a/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -310,7 +310,7 @@
     <t>8MP+2MP+5MP</t>
   </si>
   <si>
-    <t>Last Updated on: 29/01/2022</t>
+    <t>Last Updated on: 08/02/2022</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -639,6 +639,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2983,8 +2986,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3085,7 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="5">
@@ -3128,7 +3131,7 @@
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="6">
@@ -3151,7 +3154,7 @@
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6">
@@ -3174,7 +3177,7 @@
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="6">
@@ -3220,7 +3223,7 @@
       <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6">
@@ -3243,7 +3246,7 @@
       <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6">
@@ -3266,7 +3269,7 @@
       <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="6">
@@ -3289,7 +3292,7 @@
       <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="6">
@@ -3335,7 +3338,7 @@
       <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="6">
@@ -3358,7 +3361,7 @@
       <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="6">
@@ -3381,7 +3384,7 @@
       <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="6">
@@ -3404,7 +3407,7 @@
       <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="32" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="6">
@@ -3450,7 +3453,7 @@
       <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="32" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="6">
@@ -3473,7 +3476,7 @@
       <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="32" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="6">
@@ -3519,7 +3522,7 @@
       <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="32" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="6">
@@ -3542,7 +3545,7 @@
       <c r="A26" s="9">
         <v>22</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="6">
@@ -3565,7 +3568,7 @@
       <c r="A27" s="9">
         <v>23</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="6">
@@ -3588,7 +3591,7 @@
       <c r="A28" s="9">
         <v>24</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="32" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="5">
@@ -3611,14 +3614,14 @@
       <c r="A29" s="9">
         <v>25</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="32" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="6">
-        <v>1400</v>
+        <v>1370</v>
       </c>
       <c r="D29" s="6">
-        <v>1499</v>
+        <v>1470</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>28</v>
@@ -3634,7 +3637,7 @@
       <c r="A30" s="9">
         <v>26</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="6">
@@ -3657,7 +3660,7 @@
       <c r="A31" s="9">
         <v>27</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="6">
@@ -3680,7 +3683,7 @@
       <c r="A32" s="9">
         <v>28</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="6">
@@ -3735,7 +3738,7 @@
       <c r="A35" s="9">
         <v>2</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="32" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="6">
@@ -3758,7 +3761,7 @@
       <c r="A36" s="9">
         <v>3</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="6">
@@ -3804,7 +3807,7 @@
       <c r="A38" s="9">
         <v>5</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="32" t="s">
         <v>81</v>
       </c>
       <c r="C38" s="6">
@@ -3850,7 +3853,7 @@
       <c r="A40" s="9">
         <v>7</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="32" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="6">
@@ -3873,7 +3876,7 @@
       <c r="A41" s="9">
         <v>8</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="6">
@@ -3896,7 +3899,7 @@
       <c r="A42" s="9">
         <v>9</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="32" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="6">
@@ -3988,7 +3991,7 @@
       <c r="A46" s="9">
         <v>13</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="6">
@@ -4011,7 +4014,7 @@
       <c r="A47" s="9">
         <v>14</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="6">

--- a/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/2022/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>Model Name</t>
   </si>
@@ -250,9 +250,6 @@
     <t>L44</t>
   </si>
   <si>
-    <t>L45</t>
-  </si>
-  <si>
     <t>S45</t>
   </si>
   <si>
@@ -310,7 +307,13 @@
     <t>8MP+2MP+5MP</t>
   </si>
   <si>
-    <t>Last Updated on: 08/02/2022</t>
+    <t>Last Updated on: 15/02/2022</t>
+  </si>
+  <si>
+    <t>Z45  (3GB+32GB)</t>
+  </si>
+  <si>
+    <t>13MP+2MP+8MP</t>
   </si>
 </sst>
 </file>
@@ -596,6 +599,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,9 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2981,13 +2984,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,37 +3005,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3085,8 +3087,8 @@
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>84</v>
+      <c r="B6" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C6" s="5">
         <v>960</v>
@@ -3131,7 +3133,7 @@
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="6">
@@ -3154,7 +3156,7 @@
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6">
@@ -3177,7 +3179,7 @@
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="6">
@@ -3223,7 +3225,7 @@
       <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6">
@@ -3246,7 +3248,7 @@
       <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6">
@@ -3269,7 +3271,7 @@
       <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="6">
@@ -3292,7 +3294,7 @@
       <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="6">
@@ -3338,7 +3340,7 @@
       <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="6">
@@ -3361,7 +3363,7 @@
       <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="6">
@@ -3384,7 +3386,7 @@
       <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="6">
@@ -3407,8 +3409,8 @@
       <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>80</v>
+      <c r="B20" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="C20" s="6">
         <v>1260</v>
@@ -3417,7 +3419,7 @@
         <v>1360</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>22</v>
@@ -3453,7 +3455,7 @@
       <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="6">
@@ -3476,7 +3478,7 @@
       <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="6">
@@ -3495,21 +3497,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>77</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="6">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="D24" s="6">
-        <v>1299</v>
+        <v>1340</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>22</v>
@@ -3520,16 +3522,16 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>21</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="C25" s="6">
-        <v>1250</v>
+        <v>1280</v>
       </c>
       <c r="D25" s="6">
-        <v>1340</v>
+        <v>1380</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>23</v>
@@ -3543,22 +3545,22 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <v>22</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C26" s="6">
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="D26" s="6">
-        <v>1380</v>
+        <v>1399</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>19</v>
@@ -3566,22 +3568,22 @@
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>23</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1300</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1399</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1340</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1430</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>19</v>
@@ -3589,22 +3591,22 @@
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>24</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1340</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1430</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1370</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1470</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>19</v>
@@ -3612,22 +3614,22 @@
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>25</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="6">
-        <v>1370</v>
+        <v>1440</v>
       </c>
       <c r="D29" s="6">
-        <v>1470</v>
+        <v>1540</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>19</v>
@@ -3635,22 +3637,22 @@
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <v>26</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="C30" s="6">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="D30" s="6">
-        <v>1540</v>
+        <v>1550</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>19</v>
@@ -3658,146 +3660,146 @@
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
-        <v>27</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="6">
-        <v>1430</v>
+        <v>1330</v>
       </c>
       <c r="D31" s="6">
-        <v>1550</v>
+        <v>1420</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>28</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1330</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1420</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
+    <row r="32" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="13">
+        <v>7430</v>
+      </c>
+      <c r="D33" s="13">
+        <v>7990</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
-        <v>1</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="13">
-        <v>7430</v>
-      </c>
-      <c r="D34" s="13">
-        <v>7990</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="6">
+        <v>7240</v>
+      </c>
+      <c r="D34" s="6">
+        <v>7790</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <v>2</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="6">
-        <v>7240</v>
+        <v>4840</v>
       </c>
       <c r="D35" s="6">
-        <v>7790</v>
+        <v>5190</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
-        <v>3</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="C36" s="6">
-        <v>4840</v>
+        <v>5600</v>
       </c>
       <c r="D36" s="6">
-        <v>5190</v>
+        <v>5990</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>4</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>74</v>
+        <v>5</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="C37" s="6">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="D37" s="6">
-        <v>5990</v>
+        <v>6990</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>73</v>
@@ -3805,85 +3807,85 @@
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
-        <v>5</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C38" s="6">
-        <v>6500</v>
+        <v>6570</v>
       </c>
       <c r="D38" s="6">
         <v>6990</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="G38" s="9" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>6</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>94</v>
+        <v>7</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C39" s="6">
-        <v>6570</v>
+        <v>6100</v>
       </c>
       <c r="D39" s="6">
-        <v>6990</v>
+        <v>6490</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
-        <v>7</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>88</v>
+        <v>8</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C40" s="6">
-        <v>6100</v>
+        <v>7430</v>
       </c>
       <c r="D40" s="6">
-        <v>6490</v>
+        <v>7990</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>8</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="C41" s="6">
-        <v>7430</v>
+        <v>7700</v>
       </c>
       <c r="D41" s="6">
-        <v>7990</v>
+        <v>8290</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>31</v>
@@ -3897,16 +3899,16 @@
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
-        <v>9</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>85</v>
+        <v>10</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C42" s="6">
-        <v>7700</v>
+        <v>9300</v>
       </c>
       <c r="D42" s="6">
-        <v>8290</v>
+        <v>9790</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>31</v>
@@ -3915,21 +3917,21 @@
         <v>32</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="6">
-        <v>9300</v>
+        <v>10130</v>
       </c>
       <c r="D43" s="6">
-        <v>9790</v>
+        <v>10890</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>31</v>
@@ -3943,174 +3945,172 @@
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C44" s="6">
-        <v>10130</v>
+        <v>7980</v>
       </c>
       <c r="D44" s="6">
-        <v>10890</v>
+        <v>8490</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>12</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="C45" s="6">
-        <v>7980</v>
+        <v>8490</v>
       </c>
       <c r="D45" s="6">
-        <v>8490</v>
+        <v>8990</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>13</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>86</v>
+        <v>14</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C46" s="6">
-        <v>8490</v>
+        <v>9290</v>
       </c>
       <c r="D46" s="6">
-        <v>8990</v>
+        <v>9990</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>14</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C47" s="6">
-        <v>9290</v>
+        <v>10230</v>
       </c>
       <c r="D47" s="6">
-        <v>9990</v>
+        <v>10990</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>15</v>
-      </c>
+      <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="6">
-        <v>10230</v>
+        <v>9290</v>
       </c>
       <c r="D48" s="6">
-        <v>10990</v>
+        <v>9990</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>16</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>52</v>
+      <c r="B49" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="C49" s="6">
-        <v>9290</v>
+        <v>9580</v>
       </c>
       <c r="D49" s="6">
-        <v>9990</v>
+        <v>10190</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="24" t="s">
+      <c r="A50" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25" t="s">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
     </row>
   </sheetData>
   <sortState ref="B34:G46">
@@ -4123,12 +4123,12 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C50:E51"/>
     <mergeCell ref="F50:G51"/>
-    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="86" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>